--- a/print.xlsx
+++ b/print.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rocke\Desktop\보장분석자동화\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d30ae142562e1ddc/보험/한화라이프랩/자동화 프로그램 모음/bojang-v3/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{567D7A04-6FFF-4426-A8EA-D3603580CD44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="7" documentId="13_ncr:1_{567D7A04-6FFF-4426-A8EA-D3603580CD44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CF38EAF2-DCD8-45B8-9262-34D2256933C9}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="23055" yWindow="3060" windowWidth="28770" windowHeight="15450" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="기존 보험" sheetId="1" r:id="rId1"/>
@@ -1006,46 +1006,10 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1053,10 +1017,46 @@
     <xf numFmtId="0" fontId="3" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1270,6 +1270,55 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>476246</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>119060</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>3819721</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>1690685</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="그림 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{71D85D53-BAF7-4336-A31C-35DE5997A70C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="476246" y="119060"/>
+          <a:ext cx="12130288" cy="1571625"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1599,7 +1648,7 @@
   <dimension ref="A1:R52"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="40" zoomScaleNormal="85" zoomScaleSheetLayoutView="40" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:G49"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="47.25" x14ac:dyDescent="0.3"/>
@@ -1613,9 +1662,9 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="274.5" customHeight="1" thickBot="1" x14ac:dyDescent="1.2">
-      <c r="A1" s="90"/>
-      <c r="B1" s="89"/>
-      <c r="C1" s="89"/>
+      <c r="A1" s="73"/>
+      <c r="B1" s="74"/>
+      <c r="C1" s="74"/>
       <c r="D1" s="72"/>
       <c r="E1" s="72"/>
       <c r="F1" s="72"/>
@@ -1633,13 +1682,13 @@
       <c r="R1" s="72"/>
     </row>
     <row r="2" spans="1:18" ht="54.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="80" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="79" t="s">
+      <c r="A2" s="83" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="95" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="81" t="s">
+      <c r="C2" s="84" t="s">
         <v>2</v>
       </c>
       <c r="D2" s="2"/>
@@ -1659,9 +1708,9 @@
       <c r="R2" s="2"/>
     </row>
     <row r="3" spans="1:18" ht="120" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="75"/>
-      <c r="B3" s="75"/>
-      <c r="C3" s="82"/>
+      <c r="A3" s="81"/>
+      <c r="B3" s="81"/>
+      <c r="C3" s="85"/>
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
@@ -1680,10 +1729,10 @@
     </row>
     <row r="4" spans="1:18" ht="80.099999999999994" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="4"/>
-      <c r="B4" s="95" t="s">
+      <c r="B4" s="82" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="92"/>
+      <c r="C4" s="76"/>
       <c r="D4" s="5"/>
       <c r="E4" s="5"/>
       <c r="F4" s="5"/>
@@ -1702,10 +1751,10 @@
     </row>
     <row r="5" spans="1:18" ht="80.099999999999994" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="6"/>
-      <c r="B5" s="91" t="s">
+      <c r="B5" s="75" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="92"/>
+      <c r="C5" s="76"/>
       <c r="D5" s="7"/>
       <c r="E5" s="7"/>
       <c r="F5" s="7"/>
@@ -1724,10 +1773,10 @@
     </row>
     <row r="6" spans="1:18" ht="80.099999999999994" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="6"/>
-      <c r="B6" s="88" t="s">
+      <c r="B6" s="92" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="89"/>
+      <c r="C6" s="74"/>
       <c r="D6" s="7"/>
       <c r="E6" s="7"/>
       <c r="F6" s="7"/>
@@ -1749,10 +1798,10 @@
         <f t="shared" ref="A7:A48" si="0">SUM(D7:R7)</f>
         <v>0</v>
       </c>
-      <c r="B7" s="77" t="s">
+      <c r="B7" s="93" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="78"/>
+      <c r="C7" s="94"/>
       <c r="D7" s="9"/>
       <c r="E7" s="9"/>
       <c r="F7" s="9"/>
@@ -1774,10 +1823,10 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="B8" s="83" t="s">
+      <c r="B8" s="86" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="84"/>
+      <c r="C8" s="87"/>
       <c r="D8" s="10"/>
       <c r="E8" s="11"/>
       <c r="F8" s="11"/>
@@ -1799,10 +1848,10 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="B9" s="85" t="s">
+      <c r="B9" s="89" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="86"/>
+      <c r="C9" s="90"/>
       <c r="D9" s="12"/>
       <c r="E9" s="13"/>
       <c r="F9" s="13"/>
@@ -1824,10 +1873,10 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="B10" s="85" t="s">
+      <c r="B10" s="89" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="86"/>
+      <c r="C10" s="90"/>
       <c r="D10" s="15"/>
       <c r="E10" s="15"/>
       <c r="F10" s="15"/>
@@ -1849,7 +1898,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="B11" s="87" t="s">
+      <c r="B11" s="91" t="s">
         <v>10</v>
       </c>
       <c r="C11" s="17" t="s">
@@ -1876,7 +1925,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="B12" s="74"/>
+      <c r="B12" s="78"/>
       <c r="C12" s="20" t="s">
         <v>12</v>
       </c>
@@ -1901,7 +1950,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="B13" s="74"/>
+      <c r="B13" s="78"/>
       <c r="C13" s="23" t="s">
         <v>13</v>
       </c>
@@ -1926,7 +1975,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="B14" s="76" t="s">
+      <c r="B14" s="80" t="s">
         <v>14</v>
       </c>
       <c r="C14" s="26" t="s">
@@ -1953,7 +2002,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="B15" s="75"/>
+      <c r="B15" s="81"/>
       <c r="C15" s="29" t="s">
         <v>16</v>
       </c>
@@ -1978,7 +2027,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="B16" s="93" t="s">
+      <c r="B16" s="77" t="s">
         <v>17</v>
       </c>
       <c r="C16" s="32" t="s">
@@ -2005,7 +2054,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="B17" s="74"/>
+      <c r="B17" s="78"/>
       <c r="C17" s="35" t="s">
         <v>19</v>
       </c>
@@ -2030,7 +2079,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="B18" s="76" t="s">
+      <c r="B18" s="80" t="s">
         <v>20</v>
       </c>
       <c r="C18" s="38" t="s">
@@ -2057,7 +2106,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="B19" s="74"/>
+      <c r="B19" s="78"/>
       <c r="C19" s="41" t="s">
         <v>22</v>
       </c>
@@ -2082,7 +2131,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="B20" s="75"/>
+      <c r="B20" s="81"/>
       <c r="C20" s="44" t="s">
         <v>23</v>
       </c>
@@ -2107,7 +2156,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="B21" s="76" t="s">
+      <c r="B21" s="80" t="s">
         <v>24</v>
       </c>
       <c r="C21" s="47" t="s">
@@ -2134,7 +2183,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="B22" s="75"/>
+      <c r="B22" s="81"/>
       <c r="C22" s="50" t="s">
         <v>26</v>
       </c>
@@ -2159,7 +2208,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="B23" s="73" t="s">
+      <c r="B23" s="88" t="s">
         <v>27</v>
       </c>
       <c r="C23" s="26" t="s">
@@ -2186,7 +2235,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="B24" s="74"/>
+      <c r="B24" s="78"/>
       <c r="C24" s="53" t="s">
         <v>29</v>
       </c>
@@ -2211,7 +2260,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="B25" s="74"/>
+      <c r="B25" s="78"/>
       <c r="C25" s="53" t="s">
         <v>30</v>
       </c>
@@ -2236,7 +2285,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="B26" s="74"/>
+      <c r="B26" s="78"/>
       <c r="C26" s="53" t="s">
         <v>31</v>
       </c>
@@ -2261,7 +2310,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="B27" s="74"/>
+      <c r="B27" s="78"/>
       <c r="C27" s="53" t="s">
         <v>32</v>
       </c>
@@ -2286,7 +2335,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="B28" s="75"/>
+      <c r="B28" s="81"/>
       <c r="C28" s="29" t="s">
         <v>33</v>
       </c>
@@ -2311,7 +2360,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="B29" s="73" t="s">
+      <c r="B29" s="88" t="s">
         <v>34</v>
       </c>
       <c r="C29" s="26" t="s">
@@ -2338,7 +2387,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="B30" s="75"/>
+      <c r="B30" s="81"/>
       <c r="C30" s="29" t="s">
         <v>36</v>
       </c>
@@ -2363,7 +2412,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="B31" s="76" t="s">
+      <c r="B31" s="80" t="s">
         <v>37</v>
       </c>
       <c r="C31" s="56" t="s">
@@ -2390,7 +2439,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="B32" s="74"/>
+      <c r="B32" s="78"/>
       <c r="C32" s="17" t="s">
         <v>39</v>
       </c>
@@ -2415,7 +2464,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="B33" s="74"/>
+      <c r="B33" s="78"/>
       <c r="C33" s="20" t="s">
         <v>40</v>
       </c>
@@ -2440,7 +2489,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="B34" s="75"/>
+      <c r="B34" s="81"/>
       <c r="C34" s="29" t="s">
         <v>41</v>
       </c>
@@ -2465,7 +2514,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="B35" s="73" t="s">
+      <c r="B35" s="88" t="s">
         <v>42</v>
       </c>
       <c r="C35" s="58" t="s">
@@ -2492,7 +2541,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="B36" s="74"/>
+      <c r="B36" s="78"/>
       <c r="C36" s="59" t="s">
         <v>44</v>
       </c>
@@ -2517,7 +2566,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="B37" s="74"/>
+      <c r="B37" s="78"/>
       <c r="C37" s="59" t="s">
         <v>45</v>
       </c>
@@ -2542,7 +2591,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="B38" s="74"/>
+      <c r="B38" s="78"/>
       <c r="C38" s="59" t="s">
         <v>46</v>
       </c>
@@ -2567,7 +2616,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="B39" s="74"/>
+      <c r="B39" s="78"/>
       <c r="C39" s="59" t="s">
         <v>47</v>
       </c>
@@ -2592,7 +2641,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="B40" s="75"/>
+      <c r="B40" s="81"/>
       <c r="C40" s="60" t="s">
         <v>48</v>
       </c>
@@ -2644,7 +2693,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="B42" s="73" t="s">
+      <c r="B42" s="88" t="s">
         <v>51</v>
       </c>
       <c r="C42" s="26" t="s">
@@ -2671,7 +2720,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="B43" s="75"/>
+      <c r="B43" s="81"/>
       <c r="C43" s="29" t="s">
         <v>53</v>
       </c>
@@ -2723,7 +2772,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="B45" s="94" t="s">
+      <c r="B45" s="79" t="s">
         <v>56</v>
       </c>
       <c r="C45" s="26" t="s">
@@ -2750,7 +2799,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="B46" s="74"/>
+      <c r="B46" s="78"/>
       <c r="C46" s="53" t="s">
         <v>58</v>
       </c>
@@ -2775,7 +2824,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="B47" s="74"/>
+      <c r="B47" s="78"/>
       <c r="C47" s="53" t="s">
         <v>59</v>
       </c>
@@ -2800,7 +2849,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="B48" s="74"/>
+      <c r="B48" s="78"/>
       <c r="C48" s="23" t="s">
         <v>60</v>
       </c>
@@ -2906,6 +2955,12 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="B31:B34"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="B42:B43"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="B29:B30"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="B16:B17"/>
@@ -2922,16 +2977,11 @@
     <mergeCell ref="B18:B20"/>
     <mergeCell ref="B6:C6"/>
     <mergeCell ref="B35:B40"/>
-    <mergeCell ref="B31:B34"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="B42:B43"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="B29:B30"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.11811023622047249" right="0.11811023622047249" top="0.11811023622047249" bottom="0.11811023622047249" header="0.11811023622047249" footer="0.11811023622047249"/>
   <pageSetup paperSize="8" scale="10" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/print.xlsx
+++ b/print.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d30ae142562e1ddc/보험/한화라이프랩/자동화 프로그램 모음/bojang-v3/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="7" documentId="13_ncr:1_{567D7A04-6FFF-4426-A8EA-D3603580CD44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CF38EAF2-DCD8-45B8-9262-34D2256933C9}"/>
+  <xr:revisionPtr revIDLastSave="23" documentId="13_ncr:1_{567D7A04-6FFF-4426-A8EA-D3603580CD44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{91B20E20-644F-43EE-84DE-18977EE6507D}"/>
   <bookViews>
-    <workbookView xWindow="23055" yWindow="3060" windowWidth="28770" windowHeight="15450" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="기존 보험" sheetId="1" r:id="rId1"/>
@@ -172,30 +172,6 @@
     <t>운전자</t>
   </si>
   <si>
-    <t>교통 사고 처리 지원금 
-2억원</t>
-  </si>
-  <si>
-    <t>교통사고 처리 지원금 
-(6주미만) 1천만원</t>
-  </si>
-  <si>
-    <t>변호사 선임 비용 
-5천만원</t>
-  </si>
-  <si>
-    <t>운전자 벌금 (대인) 
-3천만원</t>
-  </si>
-  <si>
-    <t>운전자 벌금 (대물) 
-500만원</t>
-  </si>
-  <si>
-    <t>자동차 사고 부상 위로금 
-14급 30만원</t>
-  </si>
-  <si>
     <t>배상책임</t>
   </si>
   <si>
@@ -233,6 +209,114 @@
   </si>
   <si>
     <t>기타</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">교통 사고 처리 지원금 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="36"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="나눔고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>2억원</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">교통사고 처리 지원금 
+(6주미만) </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="36"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="나눔고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>1천만원</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">변호사 선임 비용 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="36"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="나눔고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>5천만원</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">운전자 벌금 (대인) 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="36"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="나눔고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>3천만원</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">운전자 벌금 (대물) 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="36"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="나눔고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>500만원</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">자동차 사고 부상 위로금 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="36"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="나눔고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>14급 30만원</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -799,42 +883,15 @@
     <xf numFmtId="0" fontId="3" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="177" fontId="3" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="5" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="177" fontId="5" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="7" fillId="5" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="177" fontId="7" fillId="6" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="5" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="5" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="5" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="5" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="7" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="7" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="178" fontId="7" fillId="4" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1013,7 +1070,6 @@
     <xf numFmtId="0" fontId="6" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1049,14 +1105,44 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="6" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="5" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="5" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="5" fillId="6" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="7" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1319,6 +1405,10 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1648,7 +1738,7 @@
   <dimension ref="A1:R52"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="40" zoomScaleNormal="85" zoomScaleSheetLayoutView="40" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="47.25" x14ac:dyDescent="0.3"/>
@@ -1662,33 +1752,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="274.5" customHeight="1" thickBot="1" x14ac:dyDescent="1.2">
-      <c r="A1" s="73"/>
-      <c r="B1" s="74"/>
-      <c r="C1" s="74"/>
-      <c r="D1" s="72"/>
-      <c r="E1" s="72"/>
-      <c r="F1" s="72"/>
-      <c r="G1" s="72"/>
-      <c r="H1" s="72"/>
-      <c r="I1" s="72"/>
-      <c r="J1" s="72"/>
-      <c r="K1" s="72"/>
-      <c r="L1" s="72"/>
-      <c r="M1" s="72"/>
-      <c r="N1" s="72"/>
-      <c r="O1" s="72"/>
-      <c r="P1" s="72"/>
-      <c r="Q1" s="72"/>
-      <c r="R1" s="72"/>
+      <c r="A1" s="64"/>
+      <c r="B1" s="65"/>
+      <c r="C1" s="65"/>
+      <c r="D1" s="63"/>
+      <c r="E1" s="63"/>
+      <c r="F1" s="63"/>
+      <c r="G1" s="63"/>
+      <c r="H1" s="63"/>
+      <c r="I1" s="63"/>
+      <c r="J1" s="63"/>
+      <c r="K1" s="63"/>
+      <c r="L1" s="63"/>
+      <c r="M1" s="63"/>
+      <c r="N1" s="63"/>
+      <c r="O1" s="63"/>
+      <c r="P1" s="63"/>
+      <c r="Q1" s="63"/>
+      <c r="R1" s="63"/>
     </row>
     <row r="2" spans="1:18" ht="54.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="83" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="95" t="s">
+      <c r="A2" s="73" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="84" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="84" t="s">
+      <c r="C2" s="74" t="s">
         <v>2</v>
       </c>
       <c r="D2" s="2"/>
@@ -1708,9 +1798,9 @@
       <c r="R2" s="2"/>
     </row>
     <row r="3" spans="1:18" ht="120" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="81"/>
-      <c r="B3" s="81"/>
-      <c r="C3" s="85"/>
+      <c r="A3" s="71"/>
+      <c r="B3" s="71"/>
+      <c r="C3" s="75"/>
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
@@ -1728,1230 +1818,1230 @@
       <c r="R3" s="3"/>
     </row>
     <row r="4" spans="1:18" ht="80.099999999999994" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="4"/>
-      <c r="B4" s="82" t="s">
+      <c r="A4" s="72" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="76"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5"/>
-      <c r="I4" s="5"/>
-      <c r="J4" s="5"/>
-      <c r="K4" s="5"/>
-      <c r="L4" s="5"/>
-      <c r="M4" s="5"/>
-      <c r="N4" s="5"/>
-      <c r="O4" s="5"/>
-      <c r="P4" s="5"/>
-      <c r="Q4" s="5"/>
-      <c r="R4" s="5"/>
+      <c r="B4" s="92"/>
+      <c r="C4" s="93"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="4"/>
+      <c r="K4" s="4"/>
+      <c r="L4" s="4"/>
+      <c r="M4" s="4"/>
+      <c r="N4" s="4"/>
+      <c r="O4" s="4"/>
+      <c r="P4" s="4"/>
+      <c r="Q4" s="4"/>
+      <c r="R4" s="4"/>
     </row>
     <row r="5" spans="1:18" ht="80.099999999999994" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="6"/>
-      <c r="B5" s="75" t="s">
+      <c r="A5" s="66" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="76"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="7"/>
-      <c r="H5" s="7"/>
-      <c r="I5" s="7"/>
-      <c r="J5" s="7"/>
-      <c r="K5" s="7"/>
-      <c r="L5" s="7"/>
-      <c r="M5" s="7"/>
-      <c r="N5" s="7"/>
-      <c r="O5" s="7"/>
-      <c r="P5" s="7"/>
-      <c r="Q5" s="7"/>
-      <c r="R5" s="7"/>
+      <c r="B5" s="94"/>
+      <c r="C5" s="95"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="5"/>
+      <c r="K5" s="5"/>
+      <c r="L5" s="5"/>
+      <c r="M5" s="5"/>
+      <c r="N5" s="5"/>
+      <c r="O5" s="5"/>
+      <c r="P5" s="5"/>
+      <c r="Q5" s="5"/>
+      <c r="R5" s="5"/>
     </row>
     <row r="6" spans="1:18" ht="80.099999999999994" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="6"/>
-      <c r="B6" s="92" t="s">
+      <c r="A6" s="66" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="74"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7"/>
-      <c r="I6" s="7"/>
-      <c r="J6" s="7"/>
-      <c r="K6" s="7"/>
-      <c r="L6" s="7"/>
-      <c r="M6" s="7"/>
-      <c r="N6" s="7"/>
-      <c r="O6" s="7"/>
-      <c r="P6" s="7"/>
-      <c r="Q6" s="7"/>
-      <c r="R6" s="7"/>
+      <c r="B6" s="94"/>
+      <c r="C6" s="95"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
+      <c r="J6" s="5"/>
+      <c r="K6" s="5"/>
+      <c r="L6" s="5"/>
+      <c r="M6" s="5"/>
+      <c r="N6" s="5"/>
+      <c r="O6" s="5"/>
+      <c r="P6" s="5"/>
+      <c r="Q6" s="5"/>
+      <c r="R6" s="5"/>
     </row>
     <row r="7" spans="1:18" ht="80.099999999999994" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="8">
+      <c r="A7" s="86">
         <f t="shared" ref="A7:A48" si="0">SUM(D7:R7)</f>
         <v>0</v>
       </c>
-      <c r="B7" s="93" t="s">
+      <c r="B7" s="82" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="94"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="9"/>
-      <c r="F7" s="9"/>
-      <c r="G7" s="9"/>
-      <c r="H7" s="9"/>
-      <c r="I7" s="9"/>
-      <c r="J7" s="9"/>
-      <c r="K7" s="9"/>
-      <c r="L7" s="9"/>
-      <c r="M7" s="9"/>
-      <c r="N7" s="9"/>
-      <c r="O7" s="9"/>
-      <c r="P7" s="9"/>
-      <c r="Q7" s="9"/>
-      <c r="R7" s="9"/>
+      <c r="C7" s="83"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="6"/>
+      <c r="J7" s="6"/>
+      <c r="K7" s="6"/>
+      <c r="L7" s="6"/>
+      <c r="M7" s="6"/>
+      <c r="N7" s="6"/>
+      <c r="O7" s="6"/>
+      <c r="P7" s="6"/>
+      <c r="Q7" s="6"/>
+      <c r="R7" s="6"/>
     </row>
     <row r="8" spans="1:18" ht="80.099999999999994" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="B8" s="86" t="s">
+      <c r="A8" s="85">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="B8" s="76" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="87"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="11"/>
-      <c r="G8" s="11"/>
-      <c r="H8" s="11"/>
-      <c r="I8" s="11"/>
-      <c r="J8" s="11"/>
-      <c r="K8" s="11"/>
-      <c r="L8" s="11"/>
-      <c r="M8" s="11"/>
-      <c r="N8" s="11"/>
-      <c r="O8" s="11"/>
-      <c r="P8" s="11"/>
-      <c r="Q8" s="11"/>
-      <c r="R8" s="11"/>
+      <c r="C8" s="77"/>
+      <c r="D8" s="88"/>
+      <c r="E8" s="89"/>
+      <c r="F8" s="89"/>
+      <c r="G8" s="89"/>
+      <c r="H8" s="89"/>
+      <c r="I8" s="89"/>
+      <c r="J8" s="89"/>
+      <c r="K8" s="89"/>
+      <c r="L8" s="89"/>
+      <c r="M8" s="89"/>
+      <c r="N8" s="89"/>
+      <c r="O8" s="89"/>
+      <c r="P8" s="89"/>
+      <c r="Q8" s="89"/>
+      <c r="R8" s="89"/>
     </row>
     <row r="9" spans="1:18" ht="80.099999999999994" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="B9" s="89" t="s">
+      <c r="A9" s="85">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="B9" s="79" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="90"/>
-      <c r="D9" s="12"/>
-      <c r="E9" s="13"/>
-      <c r="F9" s="13"/>
-      <c r="G9" s="13"/>
-      <c r="H9" s="13"/>
-      <c r="I9" s="13"/>
-      <c r="J9" s="13"/>
-      <c r="K9" s="13"/>
-      <c r="L9" s="13"/>
-      <c r="M9" s="13"/>
-      <c r="N9" s="13"/>
-      <c r="O9" s="13"/>
-      <c r="P9" s="13"/>
-      <c r="Q9" s="13"/>
-      <c r="R9" s="13"/>
+      <c r="C9" s="80"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="90"/>
+      <c r="F9" s="90"/>
+      <c r="G9" s="90"/>
+      <c r="H9" s="90"/>
+      <c r="I9" s="90"/>
+      <c r="J9" s="90"/>
+      <c r="K9" s="90"/>
+      <c r="L9" s="90"/>
+      <c r="M9" s="90"/>
+      <c r="N9" s="90"/>
+      <c r="O9" s="90"/>
+      <c r="P9" s="90"/>
+      <c r="Q9" s="90"/>
+      <c r="R9" s="90"/>
     </row>
     <row r="10" spans="1:18" ht="80.099999999999994" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="14">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="B10" s="89" t="s">
+      <c r="A10" s="87">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="B10" s="79" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="90"/>
-      <c r="D10" s="15"/>
-      <c r="E10" s="15"/>
-      <c r="F10" s="15"/>
-      <c r="G10" s="15"/>
-      <c r="H10" s="15"/>
-      <c r="I10" s="15"/>
-      <c r="J10" s="15"/>
-      <c r="K10" s="15"/>
-      <c r="L10" s="15"/>
-      <c r="M10" s="15"/>
-      <c r="N10" s="15"/>
-      <c r="O10" s="15"/>
-      <c r="P10" s="15"/>
-      <c r="Q10" s="15"/>
-      <c r="R10" s="15"/>
+      <c r="C10" s="80"/>
+      <c r="D10" s="91"/>
+      <c r="E10" s="91"/>
+      <c r="F10" s="91"/>
+      <c r="G10" s="91"/>
+      <c r="H10" s="91"/>
+      <c r="I10" s="91"/>
+      <c r="J10" s="91"/>
+      <c r="K10" s="91"/>
+      <c r="L10" s="91"/>
+      <c r="M10" s="91"/>
+      <c r="N10" s="91"/>
+      <c r="O10" s="91"/>
+      <c r="P10" s="91"/>
+      <c r="Q10" s="91"/>
+      <c r="R10" s="91"/>
     </row>
     <row r="11" spans="1:18" ht="99.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="16">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="B11" s="91" t="s">
+      <c r="A11" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="B11" s="81" t="s">
         <v>10</v>
       </c>
-      <c r="C11" s="17" t="s">
+      <c r="C11" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="D11" s="18"/>
-      <c r="E11" s="18"/>
-      <c r="F11" s="18"/>
-      <c r="G11" s="18"/>
-      <c r="H11" s="18"/>
-      <c r="I11" s="18"/>
-      <c r="J11" s="18"/>
-      <c r="K11" s="18"/>
-      <c r="L11" s="18"/>
-      <c r="M11" s="18"/>
-      <c r="N11" s="18"/>
-      <c r="O11" s="18"/>
-      <c r="P11" s="18"/>
-      <c r="Q11" s="18"/>
-      <c r="R11" s="18"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="9"/>
+      <c r="H11" s="9"/>
+      <c r="I11" s="9"/>
+      <c r="J11" s="9"/>
+      <c r="K11" s="9"/>
+      <c r="L11" s="9"/>
+      <c r="M11" s="9"/>
+      <c r="N11" s="9"/>
+      <c r="O11" s="9"/>
+      <c r="P11" s="9"/>
+      <c r="Q11" s="9"/>
+      <c r="R11" s="9"/>
     </row>
     <row r="12" spans="1:18" ht="99.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="19">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="B12" s="78"/>
-      <c r="C12" s="20" t="s">
+      <c r="A12" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="B12" s="68"/>
+      <c r="C12" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="D12" s="21"/>
-      <c r="E12" s="21"/>
-      <c r="F12" s="21"/>
-      <c r="G12" s="21"/>
-      <c r="H12" s="21"/>
-      <c r="I12" s="21"/>
-      <c r="J12" s="21"/>
-      <c r="K12" s="21"/>
-      <c r="L12" s="21"/>
-      <c r="M12" s="21"/>
-      <c r="N12" s="21"/>
-      <c r="O12" s="21"/>
-      <c r="P12" s="21"/>
-      <c r="Q12" s="21"/>
-      <c r="R12" s="21"/>
+      <c r="D12" s="12"/>
+      <c r="E12" s="12"/>
+      <c r="F12" s="12"/>
+      <c r="G12" s="12"/>
+      <c r="H12" s="12"/>
+      <c r="I12" s="12"/>
+      <c r="J12" s="12"/>
+      <c r="K12" s="12"/>
+      <c r="L12" s="12"/>
+      <c r="M12" s="12"/>
+      <c r="N12" s="12"/>
+      <c r="O12" s="12"/>
+      <c r="P12" s="12"/>
+      <c r="Q12" s="12"/>
+      <c r="R12" s="12"/>
     </row>
     <row r="13" spans="1:18" ht="99.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="22">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="B13" s="78"/>
-      <c r="C13" s="23" t="s">
+      <c r="A13" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="B13" s="68"/>
+      <c r="C13" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="D13" s="24"/>
-      <c r="E13" s="24"/>
-      <c r="F13" s="24"/>
-      <c r="G13" s="24"/>
-      <c r="H13" s="24"/>
-      <c r="I13" s="24"/>
-      <c r="J13" s="24"/>
-      <c r="K13" s="24"/>
-      <c r="L13" s="24"/>
-      <c r="M13" s="24"/>
-      <c r="N13" s="24"/>
-      <c r="O13" s="24"/>
-      <c r="P13" s="24"/>
-      <c r="Q13" s="24"/>
-      <c r="R13" s="24"/>
+      <c r="D13" s="15"/>
+      <c r="E13" s="15"/>
+      <c r="F13" s="15"/>
+      <c r="G13" s="15"/>
+      <c r="H13" s="15"/>
+      <c r="I13" s="15"/>
+      <c r="J13" s="15"/>
+      <c r="K13" s="15"/>
+      <c r="L13" s="15"/>
+      <c r="M13" s="15"/>
+      <c r="N13" s="15"/>
+      <c r="O13" s="15"/>
+      <c r="P13" s="15"/>
+      <c r="Q13" s="15"/>
+      <c r="R13" s="15"/>
     </row>
     <row r="14" spans="1:18" ht="99.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="25">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="B14" s="80" t="s">
+      <c r="A14" s="16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="B14" s="70" t="s">
         <v>14</v>
       </c>
-      <c r="C14" s="26" t="s">
+      <c r="C14" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="D14" s="27"/>
-      <c r="E14" s="27"/>
-      <c r="F14" s="27"/>
-      <c r="G14" s="27"/>
-      <c r="H14" s="27"/>
-      <c r="I14" s="27"/>
-      <c r="J14" s="27"/>
-      <c r="K14" s="27"/>
-      <c r="L14" s="27"/>
-      <c r="M14" s="27"/>
-      <c r="N14" s="27"/>
-      <c r="O14" s="27"/>
-      <c r="P14" s="27"/>
-      <c r="Q14" s="27"/>
-      <c r="R14" s="27"/>
+      <c r="D14" s="18"/>
+      <c r="E14" s="18"/>
+      <c r="F14" s="18"/>
+      <c r="G14" s="18"/>
+      <c r="H14" s="18"/>
+      <c r="I14" s="18"/>
+      <c r="J14" s="18"/>
+      <c r="K14" s="18"/>
+      <c r="L14" s="18"/>
+      <c r="M14" s="18"/>
+      <c r="N14" s="18"/>
+      <c r="O14" s="18"/>
+      <c r="P14" s="18"/>
+      <c r="Q14" s="18"/>
+      <c r="R14" s="18"/>
     </row>
     <row r="15" spans="1:18" ht="99.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="28">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="B15" s="81"/>
-      <c r="C15" s="29" t="s">
+      <c r="A15" s="19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="B15" s="71"/>
+      <c r="C15" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="D15" s="30"/>
-      <c r="E15" s="30"/>
-      <c r="F15" s="30"/>
-      <c r="G15" s="30"/>
-      <c r="H15" s="30"/>
-      <c r="I15" s="30"/>
-      <c r="J15" s="30"/>
-      <c r="K15" s="30"/>
-      <c r="L15" s="30"/>
-      <c r="M15" s="30"/>
-      <c r="N15" s="30"/>
-      <c r="O15" s="30"/>
-      <c r="P15" s="30"/>
-      <c r="Q15" s="30"/>
-      <c r="R15" s="30"/>
+      <c r="D15" s="21"/>
+      <c r="E15" s="21"/>
+      <c r="F15" s="21"/>
+      <c r="G15" s="21"/>
+      <c r="H15" s="21"/>
+      <c r="I15" s="21"/>
+      <c r="J15" s="21"/>
+      <c r="K15" s="21"/>
+      <c r="L15" s="21"/>
+      <c r="M15" s="21"/>
+      <c r="N15" s="21"/>
+      <c r="O15" s="21"/>
+      <c r="P15" s="21"/>
+      <c r="Q15" s="21"/>
+      <c r="R15" s="21"/>
     </row>
     <row r="16" spans="1:18" ht="99.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="31">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="B16" s="77" t="s">
+      <c r="A16" s="22">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="B16" s="67" t="s">
         <v>17</v>
       </c>
-      <c r="C16" s="32" t="s">
+      <c r="C16" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="D16" s="33"/>
-      <c r="E16" s="33"/>
-      <c r="F16" s="33"/>
-      <c r="G16" s="33"/>
-      <c r="H16" s="33"/>
-      <c r="I16" s="33"/>
-      <c r="J16" s="33"/>
-      <c r="K16" s="33"/>
-      <c r="L16" s="33"/>
-      <c r="M16" s="33"/>
-      <c r="N16" s="33"/>
-      <c r="O16" s="33"/>
-      <c r="P16" s="33"/>
-      <c r="Q16" s="33"/>
-      <c r="R16" s="33"/>
+      <c r="D16" s="24"/>
+      <c r="E16" s="24"/>
+      <c r="F16" s="24"/>
+      <c r="G16" s="24"/>
+      <c r="H16" s="24"/>
+      <c r="I16" s="24"/>
+      <c r="J16" s="24"/>
+      <c r="K16" s="24"/>
+      <c r="L16" s="24"/>
+      <c r="M16" s="24"/>
+      <c r="N16" s="24"/>
+      <c r="O16" s="24"/>
+      <c r="P16" s="24"/>
+      <c r="Q16" s="24"/>
+      <c r="R16" s="24"/>
     </row>
     <row r="17" spans="1:18" ht="99.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="34">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="B17" s="78"/>
-      <c r="C17" s="35" t="s">
+      <c r="A17" s="25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="B17" s="68"/>
+      <c r="C17" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="D17" s="36"/>
-      <c r="E17" s="36"/>
-      <c r="F17" s="36"/>
-      <c r="G17" s="36"/>
-      <c r="H17" s="36"/>
-      <c r="I17" s="36"/>
-      <c r="J17" s="36"/>
-      <c r="K17" s="36"/>
-      <c r="L17" s="36"/>
-      <c r="M17" s="36"/>
-      <c r="N17" s="36"/>
-      <c r="O17" s="36"/>
-      <c r="P17" s="36"/>
-      <c r="Q17" s="36"/>
-      <c r="R17" s="36"/>
+      <c r="D17" s="27"/>
+      <c r="E17" s="27"/>
+      <c r="F17" s="27"/>
+      <c r="G17" s="27"/>
+      <c r="H17" s="27"/>
+      <c r="I17" s="27"/>
+      <c r="J17" s="27"/>
+      <c r="K17" s="27"/>
+      <c r="L17" s="27"/>
+      <c r="M17" s="27"/>
+      <c r="N17" s="27"/>
+      <c r="O17" s="27"/>
+      <c r="P17" s="27"/>
+      <c r="Q17" s="27"/>
+      <c r="R17" s="27"/>
     </row>
     <row r="18" spans="1:18" ht="99.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="37">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="B18" s="80" t="s">
+      <c r="A18" s="28">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="B18" s="70" t="s">
         <v>20</v>
       </c>
-      <c r="C18" s="38" t="s">
+      <c r="C18" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="D18" s="39"/>
-      <c r="E18" s="39"/>
-      <c r="F18" s="39"/>
-      <c r="G18" s="39"/>
-      <c r="H18" s="39"/>
-      <c r="I18" s="39"/>
-      <c r="J18" s="39"/>
-      <c r="K18" s="39"/>
-      <c r="L18" s="39"/>
-      <c r="M18" s="39"/>
-      <c r="N18" s="39"/>
-      <c r="O18" s="39"/>
-      <c r="P18" s="39"/>
-      <c r="Q18" s="39"/>
-      <c r="R18" s="39"/>
+      <c r="D18" s="30"/>
+      <c r="E18" s="30"/>
+      <c r="F18" s="30"/>
+      <c r="G18" s="30"/>
+      <c r="H18" s="30"/>
+      <c r="I18" s="30"/>
+      <c r="J18" s="30"/>
+      <c r="K18" s="30"/>
+      <c r="L18" s="30"/>
+      <c r="M18" s="30"/>
+      <c r="N18" s="30"/>
+      <c r="O18" s="30"/>
+      <c r="P18" s="30"/>
+      <c r="Q18" s="30"/>
+      <c r="R18" s="30"/>
     </row>
     <row r="19" spans="1:18" ht="99.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="40">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="B19" s="78"/>
-      <c r="C19" s="41" t="s">
+      <c r="A19" s="31">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="B19" s="68"/>
+      <c r="C19" s="32" t="s">
         <v>22</v>
       </c>
-      <c r="D19" s="42"/>
-      <c r="E19" s="42"/>
-      <c r="F19" s="42"/>
-      <c r="G19" s="42"/>
-      <c r="H19" s="42"/>
-      <c r="I19" s="42"/>
-      <c r="J19" s="42"/>
-      <c r="K19" s="42"/>
-      <c r="L19" s="42"/>
-      <c r="M19" s="42"/>
-      <c r="N19" s="42"/>
-      <c r="O19" s="42"/>
-      <c r="P19" s="42"/>
-      <c r="Q19" s="42"/>
-      <c r="R19" s="42"/>
+      <c r="D19" s="33"/>
+      <c r="E19" s="33"/>
+      <c r="F19" s="33"/>
+      <c r="G19" s="33"/>
+      <c r="H19" s="33"/>
+      <c r="I19" s="33"/>
+      <c r="J19" s="33"/>
+      <c r="K19" s="33"/>
+      <c r="L19" s="33"/>
+      <c r="M19" s="33"/>
+      <c r="N19" s="33"/>
+      <c r="O19" s="33"/>
+      <c r="P19" s="33"/>
+      <c r="Q19" s="33"/>
+      <c r="R19" s="33"/>
     </row>
     <row r="20" spans="1:18" ht="99.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="43">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="B20" s="81"/>
-      <c r="C20" s="44" t="s">
+      <c r="A20" s="34">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="B20" s="71"/>
+      <c r="C20" s="35" t="s">
         <v>23</v>
       </c>
-      <c r="D20" s="45"/>
-      <c r="E20" s="45"/>
-      <c r="F20" s="45"/>
-      <c r="G20" s="45"/>
-      <c r="H20" s="45"/>
-      <c r="I20" s="45"/>
-      <c r="J20" s="45"/>
-      <c r="K20" s="45"/>
-      <c r="L20" s="45"/>
-      <c r="M20" s="45"/>
-      <c r="N20" s="45"/>
-      <c r="O20" s="45"/>
-      <c r="P20" s="45"/>
-      <c r="Q20" s="45"/>
-      <c r="R20" s="45"/>
+      <c r="D20" s="36"/>
+      <c r="E20" s="36"/>
+      <c r="F20" s="36"/>
+      <c r="G20" s="36"/>
+      <c r="H20" s="36"/>
+      <c r="I20" s="36"/>
+      <c r="J20" s="36"/>
+      <c r="K20" s="36"/>
+      <c r="L20" s="36"/>
+      <c r="M20" s="36"/>
+      <c r="N20" s="36"/>
+      <c r="O20" s="36"/>
+      <c r="P20" s="36"/>
+      <c r="Q20" s="36"/>
+      <c r="R20" s="36"/>
     </row>
     <row r="21" spans="1:18" ht="99.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="46">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="B21" s="80" t="s">
+      <c r="A21" s="37">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="B21" s="70" t="s">
         <v>24</v>
       </c>
-      <c r="C21" s="47" t="s">
+      <c r="C21" s="38" t="s">
         <v>25</v>
       </c>
-      <c r="D21" s="48"/>
-      <c r="E21" s="48"/>
-      <c r="F21" s="48"/>
-      <c r="G21" s="48"/>
-      <c r="H21" s="48"/>
-      <c r="I21" s="48"/>
-      <c r="J21" s="48"/>
-      <c r="K21" s="48"/>
-      <c r="L21" s="48"/>
-      <c r="M21" s="48"/>
-      <c r="N21" s="48"/>
-      <c r="O21" s="48"/>
-      <c r="P21" s="48"/>
-      <c r="Q21" s="48"/>
-      <c r="R21" s="48"/>
+      <c r="D21" s="39"/>
+      <c r="E21" s="39"/>
+      <c r="F21" s="39"/>
+      <c r="G21" s="39"/>
+      <c r="H21" s="39"/>
+      <c r="I21" s="39"/>
+      <c r="J21" s="39"/>
+      <c r="K21" s="39"/>
+      <c r="L21" s="39"/>
+      <c r="M21" s="39"/>
+      <c r="N21" s="39"/>
+      <c r="O21" s="39"/>
+      <c r="P21" s="39"/>
+      <c r="Q21" s="39"/>
+      <c r="R21" s="39"/>
     </row>
     <row r="22" spans="1:18" ht="99.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="49">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="B22" s="81"/>
-      <c r="C22" s="50" t="s">
+      <c r="A22" s="40">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="B22" s="71"/>
+      <c r="C22" s="41" t="s">
         <v>26</v>
       </c>
-      <c r="D22" s="51"/>
-      <c r="E22" s="51"/>
-      <c r="F22" s="51"/>
-      <c r="G22" s="51"/>
-      <c r="H22" s="51"/>
-      <c r="I22" s="51"/>
-      <c r="J22" s="51"/>
-      <c r="K22" s="51"/>
-      <c r="L22" s="51"/>
-      <c r="M22" s="51"/>
-      <c r="N22" s="51"/>
-      <c r="O22" s="51"/>
-      <c r="P22" s="51"/>
-      <c r="Q22" s="51"/>
-      <c r="R22" s="51"/>
+      <c r="D22" s="42"/>
+      <c r="E22" s="42"/>
+      <c r="F22" s="42"/>
+      <c r="G22" s="42"/>
+      <c r="H22" s="42"/>
+      <c r="I22" s="42"/>
+      <c r="J22" s="42"/>
+      <c r="K22" s="42"/>
+      <c r="L22" s="42"/>
+      <c r="M22" s="42"/>
+      <c r="N22" s="42"/>
+      <c r="O22" s="42"/>
+      <c r="P22" s="42"/>
+      <c r="Q22" s="42"/>
+      <c r="R22" s="42"/>
     </row>
     <row r="23" spans="1:18" ht="99.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="25">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="B23" s="88" t="s">
+      <c r="A23" s="16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="B23" s="78" t="s">
         <v>27</v>
       </c>
-      <c r="C23" s="26" t="s">
+      <c r="C23" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="D23" s="27"/>
-      <c r="E23" s="27"/>
-      <c r="F23" s="27"/>
-      <c r="G23" s="27"/>
-      <c r="H23" s="27"/>
-      <c r="I23" s="27"/>
-      <c r="J23" s="27"/>
-      <c r="K23" s="27"/>
-      <c r="L23" s="27"/>
-      <c r="M23" s="27"/>
-      <c r="N23" s="27"/>
-      <c r="O23" s="27"/>
-      <c r="P23" s="27"/>
-      <c r="Q23" s="27"/>
-      <c r="R23" s="27"/>
+      <c r="D23" s="18"/>
+      <c r="E23" s="18"/>
+      <c r="F23" s="18"/>
+      <c r="G23" s="18"/>
+      <c r="H23" s="18"/>
+      <c r="I23" s="18"/>
+      <c r="J23" s="18"/>
+      <c r="K23" s="18"/>
+      <c r="L23" s="18"/>
+      <c r="M23" s="18"/>
+      <c r="N23" s="18"/>
+      <c r="O23" s="18"/>
+      <c r="P23" s="18"/>
+      <c r="Q23" s="18"/>
+      <c r="R23" s="18"/>
     </row>
     <row r="24" spans="1:18" ht="99.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="52">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="B24" s="78"/>
-      <c r="C24" s="53" t="s">
+      <c r="A24" s="43">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="B24" s="68"/>
+      <c r="C24" s="44" t="s">
         <v>29</v>
       </c>
-      <c r="D24" s="54"/>
-      <c r="E24" s="54"/>
-      <c r="F24" s="54"/>
-      <c r="G24" s="54"/>
-      <c r="H24" s="54"/>
-      <c r="I24" s="54"/>
-      <c r="J24" s="54"/>
-      <c r="K24" s="54"/>
-      <c r="L24" s="54"/>
-      <c r="M24" s="54"/>
-      <c r="N24" s="54"/>
-      <c r="O24" s="54"/>
-      <c r="P24" s="54"/>
-      <c r="Q24" s="54"/>
-      <c r="R24" s="54"/>
+      <c r="D24" s="45"/>
+      <c r="E24" s="45"/>
+      <c r="F24" s="45"/>
+      <c r="G24" s="45"/>
+      <c r="H24" s="45"/>
+      <c r="I24" s="45"/>
+      <c r="J24" s="45"/>
+      <c r="K24" s="45"/>
+      <c r="L24" s="45"/>
+      <c r="M24" s="45"/>
+      <c r="N24" s="45"/>
+      <c r="O24" s="45"/>
+      <c r="P24" s="45"/>
+      <c r="Q24" s="45"/>
+      <c r="R24" s="45"/>
     </row>
     <row r="25" spans="1:18" ht="99.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="52">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="B25" s="78"/>
-      <c r="C25" s="53" t="s">
+      <c r="A25" s="43">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="B25" s="68"/>
+      <c r="C25" s="44" t="s">
         <v>30</v>
       </c>
-      <c r="D25" s="54"/>
-      <c r="E25" s="54"/>
-      <c r="F25" s="54"/>
-      <c r="G25" s="54"/>
-      <c r="H25" s="54"/>
-      <c r="I25" s="54"/>
-      <c r="J25" s="54"/>
-      <c r="K25" s="54"/>
-      <c r="L25" s="54"/>
-      <c r="M25" s="54"/>
-      <c r="N25" s="54"/>
-      <c r="O25" s="54"/>
-      <c r="P25" s="54"/>
-      <c r="Q25" s="54"/>
-      <c r="R25" s="54"/>
+      <c r="D25" s="45"/>
+      <c r="E25" s="45"/>
+      <c r="F25" s="45"/>
+      <c r="G25" s="45"/>
+      <c r="H25" s="45"/>
+      <c r="I25" s="45"/>
+      <c r="J25" s="45"/>
+      <c r="K25" s="45"/>
+      <c r="L25" s="45"/>
+      <c r="M25" s="45"/>
+      <c r="N25" s="45"/>
+      <c r="O25" s="45"/>
+      <c r="P25" s="45"/>
+      <c r="Q25" s="45"/>
+      <c r="R25" s="45"/>
     </row>
     <row r="26" spans="1:18" ht="99.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="52">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="B26" s="78"/>
-      <c r="C26" s="53" t="s">
+      <c r="A26" s="43">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="B26" s="68"/>
+      <c r="C26" s="44" t="s">
         <v>31</v>
       </c>
-      <c r="D26" s="54"/>
-      <c r="E26" s="54"/>
-      <c r="F26" s="54"/>
-      <c r="G26" s="54"/>
-      <c r="H26" s="54"/>
-      <c r="I26" s="54"/>
-      <c r="J26" s="54"/>
-      <c r="K26" s="54"/>
-      <c r="L26" s="54"/>
-      <c r="M26" s="54"/>
-      <c r="N26" s="54"/>
-      <c r="O26" s="54"/>
-      <c r="P26" s="54"/>
-      <c r="Q26" s="54"/>
-      <c r="R26" s="54"/>
+      <c r="D26" s="45"/>
+      <c r="E26" s="45"/>
+      <c r="F26" s="45"/>
+      <c r="G26" s="45"/>
+      <c r="H26" s="45"/>
+      <c r="I26" s="45"/>
+      <c r="J26" s="45"/>
+      <c r="K26" s="45"/>
+      <c r="L26" s="45"/>
+      <c r="M26" s="45"/>
+      <c r="N26" s="45"/>
+      <c r="O26" s="45"/>
+      <c r="P26" s="45"/>
+      <c r="Q26" s="45"/>
+      <c r="R26" s="45"/>
     </row>
     <row r="27" spans="1:18" ht="99.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="52">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="B27" s="78"/>
-      <c r="C27" s="53" t="s">
+      <c r="A27" s="43">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="B27" s="68"/>
+      <c r="C27" s="44" t="s">
         <v>32</v>
       </c>
-      <c r="D27" s="54"/>
-      <c r="E27" s="54"/>
-      <c r="F27" s="54"/>
-      <c r="G27" s="54"/>
-      <c r="H27" s="54"/>
-      <c r="I27" s="54"/>
-      <c r="J27" s="54"/>
-      <c r="K27" s="54"/>
-      <c r="L27" s="54"/>
-      <c r="M27" s="54"/>
-      <c r="N27" s="54"/>
-      <c r="O27" s="54"/>
-      <c r="P27" s="54"/>
-      <c r="Q27" s="54"/>
-      <c r="R27" s="54"/>
+      <c r="D27" s="45"/>
+      <c r="E27" s="45"/>
+      <c r="F27" s="45"/>
+      <c r="G27" s="45"/>
+      <c r="H27" s="45"/>
+      <c r="I27" s="45"/>
+      <c r="J27" s="45"/>
+      <c r="K27" s="45"/>
+      <c r="L27" s="45"/>
+      <c r="M27" s="45"/>
+      <c r="N27" s="45"/>
+      <c r="O27" s="45"/>
+      <c r="P27" s="45"/>
+      <c r="Q27" s="45"/>
+      <c r="R27" s="45"/>
     </row>
     <row r="28" spans="1:18" ht="99.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="55">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="B28" s="81"/>
-      <c r="C28" s="29" t="s">
+      <c r="A28" s="46">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="B28" s="71"/>
+      <c r="C28" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="D28" s="30"/>
-      <c r="E28" s="30"/>
-      <c r="F28" s="30"/>
-      <c r="G28" s="30"/>
-      <c r="H28" s="30"/>
-      <c r="I28" s="30"/>
-      <c r="J28" s="30"/>
-      <c r="K28" s="30"/>
-      <c r="L28" s="30"/>
-      <c r="M28" s="30"/>
-      <c r="N28" s="30"/>
-      <c r="O28" s="30"/>
-      <c r="P28" s="30"/>
-      <c r="Q28" s="30"/>
-      <c r="R28" s="30"/>
+      <c r="D28" s="21"/>
+      <c r="E28" s="21"/>
+      <c r="F28" s="21"/>
+      <c r="G28" s="21"/>
+      <c r="H28" s="21"/>
+      <c r="I28" s="21"/>
+      <c r="J28" s="21"/>
+      <c r="K28" s="21"/>
+      <c r="L28" s="21"/>
+      <c r="M28" s="21"/>
+      <c r="N28" s="21"/>
+      <c r="O28" s="21"/>
+      <c r="P28" s="21"/>
+      <c r="Q28" s="21"/>
+      <c r="R28" s="21"/>
     </row>
     <row r="29" spans="1:18" ht="99.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="25">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="B29" s="88" t="s">
+      <c r="A29" s="16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="B29" s="78" t="s">
         <v>34</v>
       </c>
-      <c r="C29" s="26" t="s">
+      <c r="C29" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="D29" s="27"/>
-      <c r="E29" s="27"/>
-      <c r="F29" s="27"/>
-      <c r="G29" s="27"/>
-      <c r="H29" s="27"/>
-      <c r="I29" s="27"/>
-      <c r="J29" s="27"/>
-      <c r="K29" s="27"/>
-      <c r="L29" s="27"/>
-      <c r="M29" s="27"/>
-      <c r="N29" s="27"/>
-      <c r="O29" s="27"/>
-      <c r="P29" s="27"/>
-      <c r="Q29" s="27"/>
-      <c r="R29" s="27"/>
+      <c r="D29" s="18"/>
+      <c r="E29" s="18"/>
+      <c r="F29" s="18"/>
+      <c r="G29" s="18"/>
+      <c r="H29" s="18"/>
+      <c r="I29" s="18"/>
+      <c r="J29" s="18"/>
+      <c r="K29" s="18"/>
+      <c r="L29" s="18"/>
+      <c r="M29" s="18"/>
+      <c r="N29" s="18"/>
+      <c r="O29" s="18"/>
+      <c r="P29" s="18"/>
+      <c r="Q29" s="18"/>
+      <c r="R29" s="18"/>
     </row>
     <row r="30" spans="1:18" ht="99.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="28">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="B30" s="81"/>
-      <c r="C30" s="29" t="s">
+      <c r="A30" s="19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="B30" s="71"/>
+      <c r="C30" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="D30" s="30"/>
-      <c r="E30" s="30"/>
-      <c r="F30" s="30"/>
-      <c r="G30" s="30"/>
-      <c r="H30" s="30"/>
-      <c r="I30" s="30"/>
-      <c r="J30" s="30"/>
-      <c r="K30" s="30"/>
-      <c r="L30" s="30"/>
-      <c r="M30" s="30"/>
-      <c r="N30" s="30"/>
-      <c r="O30" s="30"/>
-      <c r="P30" s="30"/>
-      <c r="Q30" s="30"/>
-      <c r="R30" s="30"/>
+      <c r="D30" s="21"/>
+      <c r="E30" s="21"/>
+      <c r="F30" s="21"/>
+      <c r="G30" s="21"/>
+      <c r="H30" s="21"/>
+      <c r="I30" s="21"/>
+      <c r="J30" s="21"/>
+      <c r="K30" s="21"/>
+      <c r="L30" s="21"/>
+      <c r="M30" s="21"/>
+      <c r="N30" s="21"/>
+      <c r="O30" s="21"/>
+      <c r="P30" s="21"/>
+      <c r="Q30" s="21"/>
+      <c r="R30" s="21"/>
     </row>
     <row r="31" spans="1:18" ht="99.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="25">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="B31" s="80" t="s">
+      <c r="A31" s="16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="B31" s="70" t="s">
         <v>37</v>
       </c>
-      <c r="C31" s="56" t="s">
+      <c r="C31" s="47" t="s">
         <v>38</v>
       </c>
-      <c r="D31" s="27"/>
-      <c r="E31" s="27"/>
-      <c r="F31" s="27"/>
-      <c r="G31" s="27"/>
-      <c r="H31" s="27"/>
-      <c r="I31" s="27"/>
-      <c r="J31" s="27"/>
-      <c r="K31" s="27"/>
-      <c r="L31" s="27"/>
-      <c r="M31" s="27"/>
-      <c r="N31" s="27"/>
-      <c r="O31" s="27"/>
-      <c r="P31" s="27"/>
-      <c r="Q31" s="27"/>
-      <c r="R31" s="27"/>
+      <c r="D31" s="18"/>
+      <c r="E31" s="18"/>
+      <c r="F31" s="18"/>
+      <c r="G31" s="18"/>
+      <c r="H31" s="18"/>
+      <c r="I31" s="18"/>
+      <c r="J31" s="18"/>
+      <c r="K31" s="18"/>
+      <c r="L31" s="18"/>
+      <c r="M31" s="18"/>
+      <c r="N31" s="18"/>
+      <c r="O31" s="18"/>
+      <c r="P31" s="18"/>
+      <c r="Q31" s="18"/>
+      <c r="R31" s="18"/>
     </row>
     <row r="32" spans="1:18" ht="99.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="52">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="B32" s="78"/>
-      <c r="C32" s="17" t="s">
+      <c r="A32" s="43">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="B32" s="68"/>
+      <c r="C32" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="D32" s="57"/>
-      <c r="E32" s="57"/>
-      <c r="F32" s="57"/>
-      <c r="G32" s="57"/>
-      <c r="H32" s="57"/>
-      <c r="I32" s="57"/>
-      <c r="J32" s="57"/>
-      <c r="K32" s="57"/>
-      <c r="L32" s="57"/>
-      <c r="M32" s="57"/>
-      <c r="N32" s="57"/>
-      <c r="O32" s="57"/>
-      <c r="P32" s="57"/>
-      <c r="Q32" s="57"/>
-      <c r="R32" s="57"/>
+      <c r="D32" s="48"/>
+      <c r="E32" s="48"/>
+      <c r="F32" s="48"/>
+      <c r="G32" s="48"/>
+      <c r="H32" s="48"/>
+      <c r="I32" s="48"/>
+      <c r="J32" s="48"/>
+      <c r="K32" s="48"/>
+      <c r="L32" s="48"/>
+      <c r="M32" s="48"/>
+      <c r="N32" s="48"/>
+      <c r="O32" s="48"/>
+      <c r="P32" s="48"/>
+      <c r="Q32" s="48"/>
+      <c r="R32" s="48"/>
     </row>
     <row r="33" spans="1:18" ht="99.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="19">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="B33" s="78"/>
-      <c r="C33" s="20" t="s">
+      <c r="A33" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="B33" s="68"/>
+      <c r="C33" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="D33" s="21"/>
-      <c r="E33" s="21"/>
-      <c r="F33" s="21"/>
-      <c r="G33" s="21"/>
-      <c r="H33" s="21"/>
-      <c r="I33" s="21"/>
-      <c r="J33" s="21"/>
-      <c r="K33" s="21"/>
-      <c r="L33" s="21"/>
-      <c r="M33" s="21"/>
-      <c r="N33" s="21"/>
-      <c r="O33" s="21"/>
-      <c r="P33" s="21"/>
-      <c r="Q33" s="21"/>
-      <c r="R33" s="21"/>
+      <c r="D33" s="12"/>
+      <c r="E33" s="12"/>
+      <c r="F33" s="12"/>
+      <c r="G33" s="12"/>
+      <c r="H33" s="12"/>
+      <c r="I33" s="12"/>
+      <c r="J33" s="12"/>
+      <c r="K33" s="12"/>
+      <c r="L33" s="12"/>
+      <c r="M33" s="12"/>
+      <c r="N33" s="12"/>
+      <c r="O33" s="12"/>
+      <c r="P33" s="12"/>
+      <c r="Q33" s="12"/>
+      <c r="R33" s="12"/>
     </row>
     <row r="34" spans="1:18" ht="99.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="28">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="B34" s="81"/>
-      <c r="C34" s="29" t="s">
+      <c r="A34" s="19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="B34" s="71"/>
+      <c r="C34" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="D34" s="30"/>
-      <c r="E34" s="30"/>
-      <c r="F34" s="30"/>
-      <c r="G34" s="30"/>
-      <c r="H34" s="30"/>
-      <c r="I34" s="30"/>
-      <c r="J34" s="30"/>
-      <c r="K34" s="30"/>
-      <c r="L34" s="30"/>
-      <c r="M34" s="30"/>
-      <c r="N34" s="30"/>
-      <c r="O34" s="30"/>
-      <c r="P34" s="30"/>
-      <c r="Q34" s="30"/>
-      <c r="R34" s="30"/>
+      <c r="D34" s="21"/>
+      <c r="E34" s="21"/>
+      <c r="F34" s="21"/>
+      <c r="G34" s="21"/>
+      <c r="H34" s="21"/>
+      <c r="I34" s="21"/>
+      <c r="J34" s="21"/>
+      <c r="K34" s="21"/>
+      <c r="L34" s="21"/>
+      <c r="M34" s="21"/>
+      <c r="N34" s="21"/>
+      <c r="O34" s="21"/>
+      <c r="P34" s="21"/>
+      <c r="Q34" s="21"/>
+      <c r="R34" s="21"/>
     </row>
     <row r="35" spans="1:18" ht="99.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="25">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="B35" s="88" t="s">
+      <c r="A35" s="16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="B35" s="78" t="s">
         <v>42</v>
       </c>
-      <c r="C35" s="58" t="s">
+      <c r="C35" s="49" t="s">
+        <v>56</v>
+      </c>
+      <c r="D35" s="18"/>
+      <c r="E35" s="18"/>
+      <c r="F35" s="18"/>
+      <c r="G35" s="18"/>
+      <c r="H35" s="18"/>
+      <c r="I35" s="18"/>
+      <c r="J35" s="18"/>
+      <c r="K35" s="18"/>
+      <c r="L35" s="18"/>
+      <c r="M35" s="18"/>
+      <c r="N35" s="18"/>
+      <c r="O35" s="18"/>
+      <c r="P35" s="18"/>
+      <c r="Q35" s="18"/>
+      <c r="R35" s="18"/>
+    </row>
+    <row r="36" spans="1:18" ht="99.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="43">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="B36" s="68"/>
+      <c r="C36" s="50" t="s">
+        <v>57</v>
+      </c>
+      <c r="D36" s="45"/>
+      <c r="E36" s="45"/>
+      <c r="F36" s="45"/>
+      <c r="G36" s="45"/>
+      <c r="H36" s="45"/>
+      <c r="I36" s="45"/>
+      <c r="J36" s="45"/>
+      <c r="K36" s="45"/>
+      <c r="L36" s="45"/>
+      <c r="M36" s="45"/>
+      <c r="N36" s="45"/>
+      <c r="O36" s="45"/>
+      <c r="P36" s="45"/>
+      <c r="Q36" s="45"/>
+      <c r="R36" s="45"/>
+    </row>
+    <row r="37" spans="1:18" ht="99.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="43">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="B37" s="68"/>
+      <c r="C37" s="50" t="s">
+        <v>58</v>
+      </c>
+      <c r="D37" s="45"/>
+      <c r="E37" s="45"/>
+      <c r="F37" s="45"/>
+      <c r="G37" s="45"/>
+      <c r="H37" s="45"/>
+      <c r="I37" s="45"/>
+      <c r="J37" s="45"/>
+      <c r="K37" s="45"/>
+      <c r="L37" s="45"/>
+      <c r="M37" s="45"/>
+      <c r="N37" s="45"/>
+      <c r="O37" s="45"/>
+      <c r="P37" s="45"/>
+      <c r="Q37" s="45"/>
+      <c r="R37" s="45"/>
+    </row>
+    <row r="38" spans="1:18" ht="99.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="43">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="B38" s="68"/>
+      <c r="C38" s="50" t="s">
+        <v>59</v>
+      </c>
+      <c r="D38" s="45"/>
+      <c r="E38" s="45"/>
+      <c r="F38" s="45"/>
+      <c r="G38" s="45"/>
+      <c r="H38" s="45"/>
+      <c r="I38" s="45"/>
+      <c r="J38" s="45"/>
+      <c r="K38" s="45"/>
+      <c r="L38" s="45"/>
+      <c r="M38" s="45"/>
+      <c r="N38" s="45"/>
+      <c r="O38" s="45"/>
+      <c r="P38" s="45"/>
+      <c r="Q38" s="45"/>
+      <c r="R38" s="45"/>
+    </row>
+    <row r="39" spans="1:18" ht="99.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="43">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="B39" s="68"/>
+      <c r="C39" s="50" t="s">
+        <v>60</v>
+      </c>
+      <c r="D39" s="45"/>
+      <c r="E39" s="45"/>
+      <c r="F39" s="45"/>
+      <c r="G39" s="45"/>
+      <c r="H39" s="45"/>
+      <c r="I39" s="45"/>
+      <c r="J39" s="45"/>
+      <c r="K39" s="45"/>
+      <c r="L39" s="45"/>
+      <c r="M39" s="45"/>
+      <c r="N39" s="45"/>
+      <c r="O39" s="45"/>
+      <c r="P39" s="45"/>
+      <c r="Q39" s="45"/>
+      <c r="R39" s="45"/>
+    </row>
+    <row r="40" spans="1:18" ht="99.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A40" s="19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="B40" s="71"/>
+      <c r="C40" s="51" t="s">
+        <v>61</v>
+      </c>
+      <c r="D40" s="21"/>
+      <c r="E40" s="21"/>
+      <c r="F40" s="21"/>
+      <c r="G40" s="21"/>
+      <c r="H40" s="21"/>
+      <c r="I40" s="21"/>
+      <c r="J40" s="21"/>
+      <c r="K40" s="21"/>
+      <c r="L40" s="21"/>
+      <c r="M40" s="21"/>
+      <c r="N40" s="21"/>
+      <c r="O40" s="21"/>
+      <c r="P40" s="21"/>
+      <c r="Q40" s="21"/>
+      <c r="R40" s="21"/>
+    </row>
+    <row r="41" spans="1:18" ht="99.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A41" s="52">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="B41" s="53" t="s">
         <v>43</v>
       </c>
-      <c r="D35" s="27"/>
-      <c r="E35" s="27"/>
-      <c r="F35" s="27"/>
-      <c r="G35" s="27"/>
-      <c r="H35" s="27"/>
-      <c r="I35" s="27"/>
-      <c r="J35" s="27"/>
-      <c r="K35" s="27"/>
-      <c r="L35" s="27"/>
-      <c r="M35" s="27"/>
-      <c r="N35" s="27"/>
-      <c r="O35" s="27"/>
-      <c r="P35" s="27"/>
-      <c r="Q35" s="27"/>
-      <c r="R35" s="27"/>
-    </row>
-    <row r="36" spans="1:18" ht="99.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="52">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="B36" s="78"/>
-      <c r="C36" s="59" t="s">
+      <c r="C41" s="54" t="s">
         <v>44</v>
       </c>
-      <c r="D36" s="54"/>
-      <c r="E36" s="54"/>
-      <c r="F36" s="54"/>
-      <c r="G36" s="54"/>
-      <c r="H36" s="54"/>
-      <c r="I36" s="54"/>
-      <c r="J36" s="54"/>
-      <c r="K36" s="54"/>
-      <c r="L36" s="54"/>
-      <c r="M36" s="54"/>
-      <c r="N36" s="54"/>
-      <c r="O36" s="54"/>
-      <c r="P36" s="54"/>
-      <c r="Q36" s="54"/>
-      <c r="R36" s="54"/>
-    </row>
-    <row r="37" spans="1:18" ht="99.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="52">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="B37" s="78"/>
-      <c r="C37" s="59" t="s">
+      <c r="D41" s="55"/>
+      <c r="E41" s="55"/>
+      <c r="F41" s="55"/>
+      <c r="G41" s="55"/>
+      <c r="H41" s="55"/>
+      <c r="I41" s="55"/>
+      <c r="J41" s="55"/>
+      <c r="K41" s="55"/>
+      <c r="L41" s="55"/>
+      <c r="M41" s="55"/>
+      <c r="N41" s="55"/>
+      <c r="O41" s="55"/>
+      <c r="P41" s="55"/>
+      <c r="Q41" s="55"/>
+      <c r="R41" s="55"/>
+    </row>
+    <row r="42" spans="1:18" ht="99.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="B42" s="78" t="s">
         <v>45</v>
       </c>
-      <c r="D37" s="54"/>
-      <c r="E37" s="54"/>
-      <c r="F37" s="54"/>
-      <c r="G37" s="54"/>
-      <c r="H37" s="54"/>
-      <c r="I37" s="54"/>
-      <c r="J37" s="54"/>
-      <c r="K37" s="54"/>
-      <c r="L37" s="54"/>
-      <c r="M37" s="54"/>
-      <c r="N37" s="54"/>
-      <c r="O37" s="54"/>
-      <c r="P37" s="54"/>
-      <c r="Q37" s="54"/>
-      <c r="R37" s="54"/>
-    </row>
-    <row r="38" spans="1:18" ht="99.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="52">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="B38" s="78"/>
-      <c r="C38" s="59" t="s">
+      <c r="C42" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="D38" s="54"/>
-      <c r="E38" s="54"/>
-      <c r="F38" s="54"/>
-      <c r="G38" s="54"/>
-      <c r="H38" s="54"/>
-      <c r="I38" s="54"/>
-      <c r="J38" s="54"/>
-      <c r="K38" s="54"/>
-      <c r="L38" s="54"/>
-      <c r="M38" s="54"/>
-      <c r="N38" s="54"/>
-      <c r="O38" s="54"/>
-      <c r="P38" s="54"/>
-      <c r="Q38" s="54"/>
-      <c r="R38" s="54"/>
-    </row>
-    <row r="39" spans="1:18" ht="99.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="52">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="B39" s="78"/>
-      <c r="C39" s="59" t="s">
+      <c r="D42" s="18"/>
+      <c r="E42" s="18"/>
+      <c r="F42" s="18"/>
+      <c r="G42" s="18"/>
+      <c r="H42" s="18"/>
+      <c r="I42" s="18"/>
+      <c r="J42" s="18"/>
+      <c r="K42" s="18"/>
+      <c r="L42" s="18"/>
+      <c r="M42" s="18"/>
+      <c r="N42" s="18"/>
+      <c r="O42" s="18"/>
+      <c r="P42" s="18"/>
+      <c r="Q42" s="18"/>
+      <c r="R42" s="18"/>
+    </row>
+    <row r="43" spans="1:18" ht="99.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A43" s="19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="B43" s="71"/>
+      <c r="C43" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="D39" s="54"/>
-      <c r="E39" s="54"/>
-      <c r="F39" s="54"/>
-      <c r="G39" s="54"/>
-      <c r="H39" s="54"/>
-      <c r="I39" s="54"/>
-      <c r="J39" s="54"/>
-      <c r="K39" s="54"/>
-      <c r="L39" s="54"/>
-      <c r="M39" s="54"/>
-      <c r="N39" s="54"/>
-      <c r="O39" s="54"/>
-      <c r="P39" s="54"/>
-      <c r="Q39" s="54"/>
-      <c r="R39" s="54"/>
-    </row>
-    <row r="40" spans="1:18" ht="99.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="28">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="B40" s="81"/>
-      <c r="C40" s="60" t="s">
+      <c r="D43" s="21"/>
+      <c r="E43" s="21"/>
+      <c r="F43" s="21"/>
+      <c r="G43" s="21"/>
+      <c r="H43" s="21"/>
+      <c r="I43" s="21"/>
+      <c r="J43" s="21"/>
+      <c r="K43" s="21"/>
+      <c r="L43" s="21"/>
+      <c r="M43" s="21"/>
+      <c r="N43" s="21"/>
+      <c r="O43" s="21"/>
+      <c r="P43" s="21"/>
+      <c r="Q43" s="21"/>
+      <c r="R43" s="21"/>
+    </row>
+    <row r="44" spans="1:18" ht="99.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A44" s="19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="B44" s="56" t="s">
         <v>48</v>
       </c>
-      <c r="D40" s="30"/>
-      <c r="E40" s="30"/>
-      <c r="F40" s="30"/>
-      <c r="G40" s="30"/>
-      <c r="H40" s="30"/>
-      <c r="I40" s="30"/>
-      <c r="J40" s="30"/>
-      <c r="K40" s="30"/>
-      <c r="L40" s="30"/>
-      <c r="M40" s="30"/>
-      <c r="N40" s="30"/>
-      <c r="O40" s="30"/>
-      <c r="P40" s="30"/>
-      <c r="Q40" s="30"/>
-      <c r="R40" s="30"/>
-    </row>
-    <row r="41" spans="1:18" ht="99.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="61">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="B41" s="62" t="s">
+      <c r="C44" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="C41" s="63" t="s">
+      <c r="D44" s="21"/>
+      <c r="E44" s="21"/>
+      <c r="F44" s="21"/>
+      <c r="G44" s="21"/>
+      <c r="H44" s="21"/>
+      <c r="I44" s="21"/>
+      <c r="J44" s="21"/>
+      <c r="K44" s="21"/>
+      <c r="L44" s="21"/>
+      <c r="M44" s="21"/>
+      <c r="N44" s="21"/>
+      <c r="O44" s="21"/>
+      <c r="P44" s="21"/>
+      <c r="Q44" s="21"/>
+      <c r="R44" s="21"/>
+    </row>
+    <row r="45" spans="1:18" ht="99.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="B45" s="69" t="s">
         <v>50</v>
       </c>
-      <c r="D41" s="64"/>
-      <c r="E41" s="64"/>
-      <c r="F41" s="64"/>
-      <c r="G41" s="64"/>
-      <c r="H41" s="64"/>
-      <c r="I41" s="64"/>
-      <c r="J41" s="64"/>
-      <c r="K41" s="64"/>
-      <c r="L41" s="64"/>
-      <c r="M41" s="64"/>
-      <c r="N41" s="64"/>
-      <c r="O41" s="64"/>
-      <c r="P41" s="64"/>
-      <c r="Q41" s="64"/>
-      <c r="R41" s="64"/>
-    </row>
-    <row r="42" spans="1:18" ht="99.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="25">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="B42" s="88" t="s">
+      <c r="C45" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="C42" s="26" t="s">
+      <c r="D45" s="18"/>
+      <c r="E45" s="18"/>
+      <c r="F45" s="18"/>
+      <c r="G45" s="18"/>
+      <c r="H45" s="18"/>
+      <c r="I45" s="18"/>
+      <c r="J45" s="18"/>
+      <c r="K45" s="18"/>
+      <c r="L45" s="18"/>
+      <c r="M45" s="18"/>
+      <c r="N45" s="18"/>
+      <c r="O45" s="18"/>
+      <c r="P45" s="18"/>
+      <c r="Q45" s="18"/>
+      <c r="R45" s="18"/>
+    </row>
+    <row r="46" spans="1:18" ht="99.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="43">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="B46" s="68"/>
+      <c r="C46" s="44" t="s">
         <v>52</v>
       </c>
-      <c r="D42" s="27"/>
-      <c r="E42" s="27"/>
-      <c r="F42" s="27"/>
-      <c r="G42" s="27"/>
-      <c r="H42" s="27"/>
-      <c r="I42" s="27"/>
-      <c r="J42" s="27"/>
-      <c r="K42" s="27"/>
-      <c r="L42" s="27"/>
-      <c r="M42" s="27"/>
-      <c r="N42" s="27"/>
-      <c r="O42" s="27"/>
-      <c r="P42" s="27"/>
-      <c r="Q42" s="27"/>
-      <c r="R42" s="27"/>
-    </row>
-    <row r="43" spans="1:18" ht="99.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="28">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="B43" s="81"/>
-      <c r="C43" s="29" t="s">
+      <c r="D46" s="45"/>
+      <c r="E46" s="45"/>
+      <c r="F46" s="45"/>
+      <c r="G46" s="45"/>
+      <c r="H46" s="45"/>
+      <c r="I46" s="45"/>
+      <c r="J46" s="45"/>
+      <c r="K46" s="45"/>
+      <c r="L46" s="45"/>
+      <c r="M46" s="45"/>
+      <c r="N46" s="45"/>
+      <c r="O46" s="45"/>
+      <c r="P46" s="45"/>
+      <c r="Q46" s="45"/>
+      <c r="R46" s="45"/>
+    </row>
+    <row r="47" spans="1:18" ht="99.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="43">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="B47" s="68"/>
+      <c r="C47" s="44" t="s">
         <v>53</v>
       </c>
-      <c r="D43" s="30"/>
-      <c r="E43" s="30"/>
-      <c r="F43" s="30"/>
-      <c r="G43" s="30"/>
-      <c r="H43" s="30"/>
-      <c r="I43" s="30"/>
-      <c r="J43" s="30"/>
-      <c r="K43" s="30"/>
-      <c r="L43" s="30"/>
-      <c r="M43" s="30"/>
-      <c r="N43" s="30"/>
-      <c r="O43" s="30"/>
-      <c r="P43" s="30"/>
-      <c r="Q43" s="30"/>
-      <c r="R43" s="30"/>
-    </row>
-    <row r="44" spans="1:18" ht="99.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A44" s="28">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="B44" s="65" t="s">
+      <c r="D47" s="15"/>
+      <c r="E47" s="15"/>
+      <c r="F47" s="15"/>
+      <c r="G47" s="15"/>
+      <c r="H47" s="15"/>
+      <c r="I47" s="15"/>
+      <c r="J47" s="15"/>
+      <c r="K47" s="15"/>
+      <c r="L47" s="15"/>
+      <c r="M47" s="15"/>
+      <c r="N47" s="15"/>
+      <c r="O47" s="15"/>
+      <c r="P47" s="15"/>
+      <c r="Q47" s="15"/>
+      <c r="R47" s="15"/>
+    </row>
+    <row r="48" spans="1:18" ht="99.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A48" s="19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="B48" s="68"/>
+      <c r="C48" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="C44" s="29" t="s">
+      <c r="D48" s="57"/>
+      <c r="E48" s="57"/>
+      <c r="F48" s="57"/>
+      <c r="G48" s="57"/>
+      <c r="H48" s="57"/>
+      <c r="I48" s="57"/>
+      <c r="J48" s="57"/>
+      <c r="K48" s="57"/>
+      <c r="L48" s="57"/>
+      <c r="M48" s="57"/>
+      <c r="N48" s="57"/>
+      <c r="O48" s="57"/>
+      <c r="P48" s="57"/>
+      <c r="Q48" s="57"/>
+      <c r="R48" s="57"/>
+    </row>
+    <row r="49" spans="1:18" ht="99.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A49" s="58"/>
+      <c r="B49" s="59" t="s">
         <v>55</v>
       </c>
-      <c r="D44" s="30"/>
-      <c r="E44" s="30"/>
-      <c r="F44" s="30"/>
-      <c r="G44" s="30"/>
-      <c r="H44" s="30"/>
-      <c r="I44" s="30"/>
-      <c r="J44" s="30"/>
-      <c r="K44" s="30"/>
-      <c r="L44" s="30"/>
-      <c r="M44" s="30"/>
-      <c r="N44" s="30"/>
-      <c r="O44" s="30"/>
-      <c r="P44" s="30"/>
-      <c r="Q44" s="30"/>
-      <c r="R44" s="30"/>
-    </row>
-    <row r="45" spans="1:18" ht="99.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="25">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="B45" s="79" t="s">
-        <v>56</v>
-      </c>
-      <c r="C45" s="26" t="s">
-        <v>57</v>
-      </c>
-      <c r="D45" s="27"/>
-      <c r="E45" s="27"/>
-      <c r="F45" s="27"/>
-      <c r="G45" s="27"/>
-      <c r="H45" s="27"/>
-      <c r="I45" s="27"/>
-      <c r="J45" s="27"/>
-      <c r="K45" s="27"/>
-      <c r="L45" s="27"/>
-      <c r="M45" s="27"/>
-      <c r="N45" s="27"/>
-      <c r="O45" s="27"/>
-      <c r="P45" s="27"/>
-      <c r="Q45" s="27"/>
-      <c r="R45" s="27"/>
-    </row>
-    <row r="46" spans="1:18" ht="99.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="52">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="B46" s="78"/>
-      <c r="C46" s="53" t="s">
-        <v>58</v>
-      </c>
-      <c r="D46" s="54"/>
-      <c r="E46" s="54"/>
-      <c r="F46" s="54"/>
-      <c r="G46" s="54"/>
-      <c r="H46" s="54"/>
-      <c r="I46" s="54"/>
-      <c r="J46" s="54"/>
-      <c r="K46" s="54"/>
-      <c r="L46" s="54"/>
-      <c r="M46" s="54"/>
-      <c r="N46" s="54"/>
-      <c r="O46" s="54"/>
-      <c r="P46" s="54"/>
-      <c r="Q46" s="54"/>
-      <c r="R46" s="54"/>
-    </row>
-    <row r="47" spans="1:18" ht="99.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="52">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="B47" s="78"/>
-      <c r="C47" s="53" t="s">
-        <v>59</v>
-      </c>
-      <c r="D47" s="24"/>
-      <c r="E47" s="24"/>
-      <c r="F47" s="24"/>
-      <c r="G47" s="24"/>
-      <c r="H47" s="24"/>
-      <c r="I47" s="24"/>
-      <c r="J47" s="24"/>
-      <c r="K47" s="24"/>
-      <c r="L47" s="24"/>
-      <c r="M47" s="24"/>
-      <c r="N47" s="24"/>
-      <c r="O47" s="24"/>
-      <c r="P47" s="24"/>
-      <c r="Q47" s="24"/>
-      <c r="R47" s="24"/>
-    </row>
-    <row r="48" spans="1:18" ht="99.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A48" s="28">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="B48" s="78"/>
-      <c r="C48" s="23" t="s">
-        <v>60</v>
-      </c>
-      <c r="D48" s="66"/>
-      <c r="E48" s="66"/>
-      <c r="F48" s="66"/>
-      <c r="G48" s="66"/>
-      <c r="H48" s="66"/>
-      <c r="I48" s="66"/>
-      <c r="J48" s="66"/>
-      <c r="K48" s="66"/>
-      <c r="L48" s="66"/>
-      <c r="M48" s="66"/>
-      <c r="N48" s="66"/>
-      <c r="O48" s="66"/>
-      <c r="P48" s="66"/>
-      <c r="Q48" s="66"/>
-      <c r="R48" s="66"/>
-    </row>
-    <row r="49" spans="1:18" ht="99.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A49" s="67"/>
-      <c r="B49" s="68" t="s">
-        <v>61</v>
-      </c>
-      <c r="C49" s="69" t="s">
-        <v>61</v>
-      </c>
-      <c r="D49" s="70"/>
-      <c r="E49" s="70"/>
-      <c r="F49" s="70"/>
-      <c r="G49" s="70"/>
-      <c r="H49" s="70"/>
-      <c r="I49" s="70"/>
-      <c r="J49" s="70"/>
-      <c r="K49" s="70"/>
-      <c r="L49" s="70"/>
-      <c r="M49" s="70"/>
-      <c r="N49" s="70"/>
-      <c r="O49" s="70"/>
-      <c r="P49" s="70"/>
-      <c r="Q49" s="70"/>
-      <c r="R49" s="70"/>
+      <c r="C49" s="60" t="s">
+        <v>55</v>
+      </c>
+      <c r="D49" s="61"/>
+      <c r="E49" s="61"/>
+      <c r="F49" s="61"/>
+      <c r="G49" s="61"/>
+      <c r="H49" s="61"/>
+      <c r="I49" s="61"/>
+      <c r="J49" s="61"/>
+      <c r="K49" s="61"/>
+      <c r="L49" s="61"/>
+      <c r="M49" s="61"/>
+      <c r="N49" s="61"/>
+      <c r="O49" s="61"/>
+      <c r="P49" s="61"/>
+      <c r="Q49" s="61"/>
+      <c r="R49" s="61"/>
     </row>
     <row r="50" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A50" s="71"/>
-      <c r="B50" s="71"/>
-      <c r="C50" s="71"/>
-      <c r="D50" s="71"/>
-      <c r="E50" s="71"/>
-      <c r="F50" s="71"/>
-      <c r="G50" s="71"/>
-      <c r="H50" s="71"/>
-      <c r="I50" s="71"/>
-      <c r="J50" s="71"/>
-      <c r="K50" s="71"/>
-      <c r="L50" s="71"/>
-      <c r="M50" s="71"/>
-      <c r="N50" s="71"/>
-      <c r="O50" s="71"/>
-      <c r="P50" s="71"/>
-      <c r="Q50" s="71"/>
-      <c r="R50" s="71"/>
+      <c r="A50" s="62"/>
+      <c r="B50" s="62"/>
+      <c r="C50" s="62"/>
+      <c r="D50" s="62"/>
+      <c r="E50" s="62"/>
+      <c r="F50" s="62"/>
+      <c r="G50" s="62"/>
+      <c r="H50" s="62"/>
+      <c r="I50" s="62"/>
+      <c r="J50" s="62"/>
+      <c r="K50" s="62"/>
+      <c r="L50" s="62"/>
+      <c r="M50" s="62"/>
+      <c r="N50" s="62"/>
+      <c r="O50" s="62"/>
+      <c r="P50" s="62"/>
+      <c r="Q50" s="62"/>
+      <c r="R50" s="62"/>
     </row>
     <row r="51" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A51" s="71"/>
-      <c r="B51" s="71"/>
-      <c r="C51" s="71"/>
-      <c r="D51" s="71"/>
-      <c r="E51" s="71"/>
-      <c r="F51" s="71"/>
-      <c r="G51" s="71"/>
-      <c r="H51" s="71"/>
-      <c r="I51" s="71"/>
-      <c r="J51" s="71"/>
-      <c r="K51" s="71"/>
-      <c r="L51" s="71"/>
-      <c r="M51" s="71"/>
-      <c r="N51" s="71"/>
-      <c r="O51" s="71"/>
-      <c r="P51" s="71"/>
-      <c r="Q51" s="71"/>
-      <c r="R51" s="71"/>
+      <c r="A51" s="62"/>
+      <c r="B51" s="62"/>
+      <c r="C51" s="62"/>
+      <c r="D51" s="62"/>
+      <c r="E51" s="62"/>
+      <c r="F51" s="62"/>
+      <c r="G51" s="62"/>
+      <c r="H51" s="62"/>
+      <c r="I51" s="62"/>
+      <c r="J51" s="62"/>
+      <c r="K51" s="62"/>
+      <c r="L51" s="62"/>
+      <c r="M51" s="62"/>
+      <c r="N51" s="62"/>
+      <c r="O51" s="62"/>
+      <c r="P51" s="62"/>
+      <c r="Q51" s="62"/>
+      <c r="R51" s="62"/>
     </row>
     <row r="52" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A52" s="71"/>
-      <c r="B52" s="71"/>
-      <c r="C52" s="71"/>
-      <c r="D52" s="71"/>
-      <c r="E52" s="71"/>
-      <c r="F52" s="71"/>
-      <c r="G52" s="71"/>
-      <c r="H52" s="71"/>
-      <c r="I52" s="71"/>
-      <c r="J52" s="71"/>
-      <c r="K52" s="71"/>
-      <c r="L52" s="71"/>
-      <c r="M52" s="71"/>
-      <c r="N52" s="71"/>
-      <c r="O52" s="71"/>
-      <c r="P52" s="71"/>
-      <c r="Q52" s="71"/>
-      <c r="R52" s="71"/>
+      <c r="A52" s="62"/>
+      <c r="B52" s="62"/>
+      <c r="C52" s="62"/>
+      <c r="D52" s="62"/>
+      <c r="E52" s="62"/>
+      <c r="F52" s="62"/>
+      <c r="G52" s="62"/>
+      <c r="H52" s="62"/>
+      <c r="I52" s="62"/>
+      <c r="J52" s="62"/>
+      <c r="K52" s="62"/>
+      <c r="L52" s="62"/>
+      <c r="M52" s="62"/>
+      <c r="N52" s="62"/>
+      <c r="O52" s="62"/>
+      <c r="P52" s="62"/>
+      <c r="Q52" s="62"/>
+      <c r="R52" s="62"/>
     </row>
   </sheetData>
   <mergeCells count="22">
@@ -2961,12 +3051,13 @@
     <mergeCell ref="B42:B43"/>
     <mergeCell ref="B14:B15"/>
     <mergeCell ref="B29:B30"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="A6:C6"/>
     <mergeCell ref="A1:C1"/>
-    <mergeCell ref="B5:C5"/>
     <mergeCell ref="B16:B17"/>
     <mergeCell ref="B45:B48"/>
     <mergeCell ref="B21:B22"/>
-    <mergeCell ref="B4:C4"/>
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="C2:C3"/>
     <mergeCell ref="B8:C8"/>
@@ -2975,7 +3066,6 @@
     <mergeCell ref="B11:B13"/>
     <mergeCell ref="B9:C9"/>
     <mergeCell ref="B18:B20"/>
-    <mergeCell ref="B6:C6"/>
     <mergeCell ref="B35:B40"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/print.xlsx
+++ b/print.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d30ae142562e1ddc/보험/한화라이프랩/자동화 프로그램 모음/bojang-v3/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="23" documentId="13_ncr:1_{567D7A04-6FFF-4426-A8EA-D3603580CD44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{91B20E20-644F-43EE-84DE-18977EE6507D}"/>
+  <xr:revisionPtr revIDLastSave="32" documentId="13_ncr:1_{567D7A04-6FFF-4426-A8EA-D3603580CD44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A93962C3-4111-4948-A09A-735D5C66E3C0}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="기존 보험" sheetId="1" r:id="rId1"/>
@@ -407,7 +407,7 @@
       <charset val="129"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -456,6 +456,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="32">
     <border>
@@ -870,7 +876,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="96">
+  <cellXfs count="97">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1063,25 +1069,46 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="176" fontId="7" fillId="6" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1095,9 +1122,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1105,46 +1129,31 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="5" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="7" fillId="6" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="7" fillId="9" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="7" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="5" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="5" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="5" fillId="9" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="5" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="5" fillId="9" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="5" fillId="6" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="5" fillId="9" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="7" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="7" fillId="9" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -1738,7 +1747,7 @@
   <dimension ref="A1:R52"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="40" zoomScaleNormal="85" zoomScaleSheetLayoutView="40" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="47.25" x14ac:dyDescent="0.3"/>
@@ -1752,9 +1761,9 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="274.5" customHeight="1" thickBot="1" x14ac:dyDescent="1.2">
-      <c r="A1" s="64"/>
-      <c r="B1" s="65"/>
-      <c r="C1" s="65"/>
+      <c r="A1" s="76"/>
+      <c r="B1" s="77"/>
+      <c r="C1" s="77"/>
       <c r="D1" s="63"/>
       <c r="E1" s="63"/>
       <c r="F1" s="63"/>
@@ -1772,13 +1781,13 @@
       <c r="R1" s="63"/>
     </row>
     <row r="2" spans="1:18" ht="54.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="73" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="84" t="s">
+      <c r="A2" s="80" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="68" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="74" t="s">
+      <c r="C2" s="81" t="s">
         <v>2</v>
       </c>
       <c r="D2" s="2"/>
@@ -1798,9 +1807,9 @@
       <c r="R2" s="2"/>
     </row>
     <row r="3" spans="1:18" ht="120" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="71"/>
-      <c r="B3" s="71"/>
-      <c r="C3" s="75"/>
+      <c r="A3" s="67"/>
+      <c r="B3" s="67"/>
+      <c r="C3" s="82"/>
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
@@ -1818,11 +1827,11 @@
       <c r="R3" s="3"/>
     </row>
     <row r="4" spans="1:18" ht="80.099999999999994" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="72" t="s">
+      <c r="A4" s="70" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="92"/>
-      <c r="C4" s="93"/>
+      <c r="B4" s="71"/>
+      <c r="C4" s="72"/>
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
       <c r="F4" s="4"/>
@@ -1840,11 +1849,11 @@
       <c r="R4" s="4"/>
     </row>
     <row r="5" spans="1:18" ht="80.099999999999994" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="66" t="s">
+      <c r="A5" s="73" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="94"/>
-      <c r="C5" s="95"/>
+      <c r="B5" s="74"/>
+      <c r="C5" s="75"/>
       <c r="D5" s="5"/>
       <c r="E5" s="5"/>
       <c r="F5" s="5"/>
@@ -1862,11 +1871,11 @@
       <c r="R5" s="5"/>
     </row>
     <row r="6" spans="1:18" ht="80.099999999999994" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="66" t="s">
+      <c r="A6" s="73" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="94"/>
-      <c r="C6" s="95"/>
+      <c r="B6" s="74"/>
+      <c r="C6" s="75"/>
       <c r="D6" s="5"/>
       <c r="E6" s="5"/>
       <c r="F6" s="5"/>
@@ -1884,14 +1893,14 @@
       <c r="R6" s="5"/>
     </row>
     <row r="7" spans="1:18" ht="80.099999999999994" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="86">
+      <c r="A7" s="64">
         <f t="shared" ref="A7:A48" si="0">SUM(D7:R7)</f>
         <v>0</v>
       </c>
-      <c r="B7" s="82" t="s">
+      <c r="B7" s="95" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="83"/>
+      <c r="C7" s="96"/>
       <c r="D7" s="6"/>
       <c r="E7" s="6"/>
       <c r="F7" s="6"/>
@@ -1909,86 +1918,86 @@
       <c r="R7" s="6"/>
     </row>
     <row r="8" spans="1:18" ht="80.099999999999994" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="85">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="B8" s="76" t="s">
+      <c r="A8" s="88">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="B8" s="83" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="77"/>
-      <c r="D8" s="88"/>
-      <c r="E8" s="89"/>
-      <c r="F8" s="89"/>
-      <c r="G8" s="89"/>
-      <c r="H8" s="89"/>
-      <c r="I8" s="89"/>
-      <c r="J8" s="89"/>
-      <c r="K8" s="89"/>
-      <c r="L8" s="89"/>
-      <c r="M8" s="89"/>
-      <c r="N8" s="89"/>
-      <c r="O8" s="89"/>
-      <c r="P8" s="89"/>
-      <c r="Q8" s="89"/>
-      <c r="R8" s="89"/>
+      <c r="C8" s="84"/>
+      <c r="D8" s="90"/>
+      <c r="E8" s="91"/>
+      <c r="F8" s="91"/>
+      <c r="G8" s="91"/>
+      <c r="H8" s="91"/>
+      <c r="I8" s="91"/>
+      <c r="J8" s="91"/>
+      <c r="K8" s="91"/>
+      <c r="L8" s="91"/>
+      <c r="M8" s="91"/>
+      <c r="N8" s="91"/>
+      <c r="O8" s="91"/>
+      <c r="P8" s="91"/>
+      <c r="Q8" s="91"/>
+      <c r="R8" s="91"/>
     </row>
     <row r="9" spans="1:18" ht="80.099999999999994" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="85">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="B9" s="79" t="s">
+      <c r="A9" s="88">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="B9" s="85" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="80"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="90"/>
-      <c r="F9" s="90"/>
-      <c r="G9" s="90"/>
-      <c r="H9" s="90"/>
-      <c r="I9" s="90"/>
-      <c r="J9" s="90"/>
-      <c r="K9" s="90"/>
-      <c r="L9" s="90"/>
-      <c r="M9" s="90"/>
-      <c r="N9" s="90"/>
-      <c r="O9" s="90"/>
-      <c r="P9" s="90"/>
-      <c r="Q9" s="90"/>
-      <c r="R9" s="90"/>
+      <c r="C9" s="86"/>
+      <c r="D9" s="92"/>
+      <c r="E9" s="93"/>
+      <c r="F9" s="93"/>
+      <c r="G9" s="93"/>
+      <c r="H9" s="93"/>
+      <c r="I9" s="93"/>
+      <c r="J9" s="93"/>
+      <c r="K9" s="93"/>
+      <c r="L9" s="93"/>
+      <c r="M9" s="93"/>
+      <c r="N9" s="93"/>
+      <c r="O9" s="93"/>
+      <c r="P9" s="93"/>
+      <c r="Q9" s="93"/>
+      <c r="R9" s="93"/>
     </row>
     <row r="10" spans="1:18" ht="80.099999999999994" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="87">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="B10" s="79" t="s">
+      <c r="A10" s="89">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="B10" s="85" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="80"/>
-      <c r="D10" s="91"/>
-      <c r="E10" s="91"/>
-      <c r="F10" s="91"/>
-      <c r="G10" s="91"/>
-      <c r="H10" s="91"/>
-      <c r="I10" s="91"/>
-      <c r="J10" s="91"/>
-      <c r="K10" s="91"/>
-      <c r="L10" s="91"/>
-      <c r="M10" s="91"/>
-      <c r="N10" s="91"/>
-      <c r="O10" s="91"/>
-      <c r="P10" s="91"/>
-      <c r="Q10" s="91"/>
-      <c r="R10" s="91"/>
+      <c r="C10" s="86"/>
+      <c r="D10" s="94"/>
+      <c r="E10" s="94"/>
+      <c r="F10" s="94"/>
+      <c r="G10" s="94"/>
+      <c r="H10" s="94"/>
+      <c r="I10" s="94"/>
+      <c r="J10" s="94"/>
+      <c r="K10" s="94"/>
+      <c r="L10" s="94"/>
+      <c r="M10" s="94"/>
+      <c r="N10" s="94"/>
+      <c r="O10" s="94"/>
+      <c r="P10" s="94"/>
+      <c r="Q10" s="94"/>
+      <c r="R10" s="94"/>
     </row>
     <row r="11" spans="1:18" ht="99.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="B11" s="81" t="s">
+      <c r="B11" s="87" t="s">
         <v>10</v>
       </c>
       <c r="C11" s="8" t="s">
@@ -2015,7 +2024,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="B12" s="68"/>
+      <c r="B12" s="66"/>
       <c r="C12" s="11" t="s">
         <v>12</v>
       </c>
@@ -2040,7 +2049,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="B13" s="68"/>
+      <c r="B13" s="66"/>
       <c r="C13" s="14" t="s">
         <v>13</v>
       </c>
@@ -2065,7 +2074,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="B14" s="70" t="s">
+      <c r="B14" s="65" t="s">
         <v>14</v>
       </c>
       <c r="C14" s="17" t="s">
@@ -2092,7 +2101,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="B15" s="71"/>
+      <c r="B15" s="67"/>
       <c r="C15" s="20" t="s">
         <v>16</v>
       </c>
@@ -2117,7 +2126,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="B16" s="67" t="s">
+      <c r="B16" s="78" t="s">
         <v>17</v>
       </c>
       <c r="C16" s="23" t="s">
@@ -2144,7 +2153,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="B17" s="68"/>
+      <c r="B17" s="66"/>
       <c r="C17" s="26" t="s">
         <v>19</v>
       </c>
@@ -2169,7 +2178,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="B18" s="70" t="s">
+      <c r="B18" s="65" t="s">
         <v>20</v>
       </c>
       <c r="C18" s="29" t="s">
@@ -2196,7 +2205,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="B19" s="68"/>
+      <c r="B19" s="66"/>
       <c r="C19" s="32" t="s">
         <v>22</v>
       </c>
@@ -2221,7 +2230,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="B20" s="71"/>
+      <c r="B20" s="67"/>
       <c r="C20" s="35" t="s">
         <v>23</v>
       </c>
@@ -2246,7 +2255,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="B21" s="70" t="s">
+      <c r="B21" s="65" t="s">
         <v>24</v>
       </c>
       <c r="C21" s="38" t="s">
@@ -2273,7 +2282,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="B22" s="71"/>
+      <c r="B22" s="67"/>
       <c r="C22" s="41" t="s">
         <v>26</v>
       </c>
@@ -2298,7 +2307,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="B23" s="78" t="s">
+      <c r="B23" s="69" t="s">
         <v>27</v>
       </c>
       <c r="C23" s="17" t="s">
@@ -2325,7 +2334,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="B24" s="68"/>
+      <c r="B24" s="66"/>
       <c r="C24" s="44" t="s">
         <v>29</v>
       </c>
@@ -2350,7 +2359,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="B25" s="68"/>
+      <c r="B25" s="66"/>
       <c r="C25" s="44" t="s">
         <v>30</v>
       </c>
@@ -2375,7 +2384,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="B26" s="68"/>
+      <c r="B26" s="66"/>
       <c r="C26" s="44" t="s">
         <v>31</v>
       </c>
@@ -2400,7 +2409,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="B27" s="68"/>
+      <c r="B27" s="66"/>
       <c r="C27" s="44" t="s">
         <v>32</v>
       </c>
@@ -2425,7 +2434,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="B28" s="71"/>
+      <c r="B28" s="67"/>
       <c r="C28" s="20" t="s">
         <v>33</v>
       </c>
@@ -2450,7 +2459,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="B29" s="78" t="s">
+      <c r="B29" s="69" t="s">
         <v>34</v>
       </c>
       <c r="C29" s="17" t="s">
@@ -2477,7 +2486,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="B30" s="71"/>
+      <c r="B30" s="67"/>
       <c r="C30" s="20" t="s">
         <v>36</v>
       </c>
@@ -2502,7 +2511,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="B31" s="70" t="s">
+      <c r="B31" s="65" t="s">
         <v>37</v>
       </c>
       <c r="C31" s="47" t="s">
@@ -2529,7 +2538,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="B32" s="68"/>
+      <c r="B32" s="66"/>
       <c r="C32" s="8" t="s">
         <v>39</v>
       </c>
@@ -2554,7 +2563,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="B33" s="68"/>
+      <c r="B33" s="66"/>
       <c r="C33" s="11" t="s">
         <v>40</v>
       </c>
@@ -2579,7 +2588,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="B34" s="71"/>
+      <c r="B34" s="67"/>
       <c r="C34" s="20" t="s">
         <v>41</v>
       </c>
@@ -2604,7 +2613,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="B35" s="78" t="s">
+      <c r="B35" s="69" t="s">
         <v>42</v>
       </c>
       <c r="C35" s="49" t="s">
@@ -2631,7 +2640,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="B36" s="68"/>
+      <c r="B36" s="66"/>
       <c r="C36" s="50" t="s">
         <v>57</v>
       </c>
@@ -2656,7 +2665,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="B37" s="68"/>
+      <c r="B37" s="66"/>
       <c r="C37" s="50" t="s">
         <v>58</v>
       </c>
@@ -2681,7 +2690,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="B38" s="68"/>
+      <c r="B38" s="66"/>
       <c r="C38" s="50" t="s">
         <v>59</v>
       </c>
@@ -2706,7 +2715,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="B39" s="68"/>
+      <c r="B39" s="66"/>
       <c r="C39" s="50" t="s">
         <v>60</v>
       </c>
@@ -2731,7 +2740,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="B40" s="71"/>
+      <c r="B40" s="67"/>
       <c r="C40" s="51" t="s">
         <v>61</v>
       </c>
@@ -2783,7 +2792,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="B42" s="78" t="s">
+      <c r="B42" s="69" t="s">
         <v>45</v>
       </c>
       <c r="C42" s="17" t="s">
@@ -2810,7 +2819,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="B43" s="71"/>
+      <c r="B43" s="67"/>
       <c r="C43" s="20" t="s">
         <v>47</v>
       </c>
@@ -2862,7 +2871,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="B45" s="69" t="s">
+      <c r="B45" s="79" t="s">
         <v>50</v>
       </c>
       <c r="C45" s="17" t="s">
@@ -2889,7 +2898,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="B46" s="68"/>
+      <c r="B46" s="66"/>
       <c r="C46" s="44" t="s">
         <v>52</v>
       </c>
@@ -2914,7 +2923,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="B47" s="68"/>
+      <c r="B47" s="66"/>
       <c r="C47" s="44" t="s">
         <v>53</v>
       </c>
@@ -2939,7 +2948,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="B48" s="68"/>
+      <c r="B48" s="66"/>
       <c r="C48" s="14" t="s">
         <v>54</v>
       </c>
@@ -3045,15 +3054,6 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="B31:B34"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="B42:B43"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="A6:C6"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="B16:B17"/>
     <mergeCell ref="B45:B48"/>
@@ -3067,6 +3067,15 @@
     <mergeCell ref="B9:C9"/>
     <mergeCell ref="B18:B20"/>
     <mergeCell ref="B35:B40"/>
+    <mergeCell ref="B31:B34"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="B42:B43"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="A6:C6"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
